--- a/9/9.xlsx
+++ b/9/9.xlsx
@@ -5,28 +5,40 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pulpit\Github\Fizyka-laby\9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrz\Desktop\Github\Fizyka-laby\9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7719970F-B242-4CBB-8A65-09EB0F469206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7CA5AE-6B34-49B3-BF6D-31F9EF0B22E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1875" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Zadania" sheetId="2" r:id="rId1"/>
-    <sheet name="Pomiary" sheetId="1" r:id="rId2"/>
+    <sheet name="Wykres" sheetId="3" r:id="rId1"/>
+    <sheet name="Zadania" sheetId="2" r:id="rId2"/>
+    <sheet name="Pomiary" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Lp.</t>
   </si>
@@ -47,6 +59,45 @@
   </si>
   <si>
     <t>u(∆T), K</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4., 5.</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>u(a)</t>
+  </si>
+  <si>
+    <t>R^2</t>
+  </si>
+  <si>
+    <t>u(b)</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>u(Td), C</t>
+  </si>
+  <si>
+    <t>u(Tg), C</t>
   </si>
 </sst>
 </file>
@@ -70,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -93,13 +144,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -115,6 +323,2512 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Wykres zależności</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> delty temperatury od natężenia</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Zadania!$D$3:$D$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>3.4641016151377548E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.041451884327381E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.6188021535170064E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.1961524227066326E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.773502691896258E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.3508529610858833E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Zadania!$D$3:$D$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>3.4641016151377548E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.041451884327381E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.6188021535170064E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.1961524227066326E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.773502691896258E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.3508529610858833E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Zadania!$J$3:$J$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>9.067194531202398E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.9937098389189035E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.9896273560142639E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.0998543944395077E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.2998960567668001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>9.6673195181842766E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Zadania!$J$3:$J$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>9.067194531202398E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.9937098389189035E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.9896273560142639E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.0998543944395077E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.2998960567668001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>9.6673195181842766E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Zadania!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Zadania!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.8999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B322-405C-9FF2-28F0B3BAD129}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1683965039"/>
+        <c:axId val="1683973199"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1683965039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>I, A</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1683973199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1683973199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>∆T, K</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1683965039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Wykres zależności</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> delty temperatury od natężenia</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Zadania!$D$3:$D$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>3.4641016151377548E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.041451884327381E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.6188021535170064E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.1961524227066326E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.773502691896258E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.3508529610858833E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Zadania!$D$3:$D$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>3.4641016151377548E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.041451884327381E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.6188021535170064E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.1961524227066326E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.773502691896258E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.3508529610858833E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Zadania!$J$3:$J$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>9.067194531202398E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.9937098389189035E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.9896273560142639E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.0998543944395077E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.2998960567668001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>9.6673195181842766E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Zadania!$J$3:$J$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>9.067194531202398E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.9937098389189035E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.9896273560142639E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.0998543944395077E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.2998960567668001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>9.6673195181842766E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Zadania!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Zadania!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.8999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-260F-48A8-82DA-6F8DB57A3F14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1683965039"/>
+        <c:axId val="1683973199"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1683965039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>I, A</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1683973199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1683973199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>∆T, K</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1683965039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53814</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>32288</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6AC4906-B1F5-4127-849C-6423F2B005F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{306166E3-110B-7A54-5DF8-68C222C5DC3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,146 +3093,730 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05863FC3-402F-4DAE-B36D-0329BA81F640}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1BD716-0C03-43A1-BADB-C5727229DC5B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="59" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05863FC3-402F-4DAE-B36D-0329BA81F640}">
+  <dimension ref="B1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="18"/>
+    <col min="2" max="2" width="3.26953125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="8.54296875" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="str">
+        <f>Pomiary!B2</f>
+        <v>Lp.</v>
+      </c>
+      <c r="C2" s="10" t="str">
+        <f>Pomiary!C2</f>
+        <v>I, A</v>
+      </c>
+      <c r="D2" s="10" t="str">
+        <f>Pomiary!D2</f>
+        <v>u(I), A</v>
+      </c>
+      <c r="E2" s="10" t="str">
+        <f>Pomiary!E2</f>
+        <v>Td, C</v>
+      </c>
+      <c r="F2" s="10" t="str">
+        <f>Pomiary!F2</f>
+        <v>u(Td), C</v>
+      </c>
+      <c r="G2" s="10" t="str">
+        <f>Pomiary!G2</f>
+        <v>Tg, C</v>
+      </c>
+      <c r="H2" s="10" t="str">
+        <f>Pomiary!H2</f>
+        <v>u(Tg), C</v>
+      </c>
+      <c r="I2" s="10" t="str">
+        <f>Pomiary!I2</f>
+        <v>∆T, K</v>
+      </c>
+      <c r="J2" s="11" t="str">
+        <f>Pomiary!J2</f>
+        <v>u(∆T), K</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B3" s="12">
+        <f>Pomiary!B3</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
+        <f>Pomiary!C3</f>
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="13">
+        <f>Pomiary!D3</f>
+        <v>3.4641016151377548E-3</v>
+      </c>
+      <c r="E3" s="13">
+        <f>Pomiary!E3</f>
+        <v>22.1</v>
+      </c>
+      <c r="F3" s="13">
+        <f>Pomiary!F3</f>
+        <v>6.4114747393507948E-2</v>
+      </c>
+      <c r="G3" s="13">
+        <f>Pomiary!G3</f>
+        <v>28</v>
+      </c>
+      <c r="H3" s="13">
+        <f>Pomiary!H3</f>
+        <v>6.4114747393507948E-2</v>
+      </c>
+      <c r="I3" s="13">
+        <f>Pomiary!I3</f>
+        <v>5.8999999999999986</v>
+      </c>
+      <c r="J3" s="14">
+        <f>Pomiary!J3</f>
+        <v>9.067194531202398E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="12">
+        <f>Pomiary!B4</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="13">
+        <f>Pomiary!C4</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="13">
+        <f>Pomiary!D4</f>
+        <v>4.041451884327381E-3</v>
+      </c>
+      <c r="E4" s="13">
+        <f>Pomiary!E4</f>
+        <v>20.3</v>
+      </c>
+      <c r="F4" s="13">
+        <f>Pomiary!F4</f>
+        <v>6.3595132151237285E-2</v>
+      </c>
+      <c r="G4" s="13">
+        <f>Pomiary!G4</f>
+        <v>33.1</v>
+      </c>
+      <c r="H4" s="13">
+        <f>Pomiary!H4</f>
+        <v>6.3595132151237285E-2</v>
+      </c>
+      <c r="I4" s="13">
+        <f>Pomiary!I4</f>
+        <v>12.8</v>
+      </c>
+      <c r="J4" s="14">
+        <f>Pomiary!J4</f>
+        <v>8.9937098389189035E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="12">
+        <f>Pomiary!B5</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="13">
+        <f>Pomiary!C5</f>
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="13">
+        <f>Pomiary!D5</f>
+        <v>4.6188021535170064E-3</v>
+      </c>
+      <c r="E5" s="13">
+        <f>Pomiary!E5</f>
+        <v>20.2</v>
+      </c>
+      <c r="F5" s="13">
+        <f>Pomiary!F5</f>
+        <v>6.35662646377778E-2</v>
+      </c>
+      <c r="G5" s="13">
+        <f>Pomiary!G5</f>
+        <v>41</v>
+      </c>
+      <c r="H5" s="13">
+        <f>Pomiary!H5</f>
+        <v>6.35662646377778E-2</v>
+      </c>
+      <c r="I5" s="13">
+        <f>Pomiary!I5</f>
+        <v>20.8</v>
+      </c>
+      <c r="J5" s="14">
+        <f>Pomiary!J5</f>
+        <v>8.9896273560142639E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="12">
+        <f>Pomiary!B6</f>
+        <v>4</v>
+      </c>
+      <c r="C6" s="13">
+        <f>Pomiary!C6</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="13">
+        <f>Pomiary!D6</f>
+        <v>5.1961524227066326E-3</v>
+      </c>
+      <c r="E6" s="13">
+        <f>Pomiary!E6</f>
+        <v>22.9</v>
+      </c>
+      <c r="F6" s="13">
+        <f>Pomiary!F6</f>
+        <v>6.4345687501183801E-2</v>
+      </c>
+      <c r="G6" s="13">
+        <f>Pomiary!G6</f>
+        <v>51.8</v>
+      </c>
+      <c r="H6" s="13">
+        <f>Pomiary!H6</f>
+        <v>6.4345687501183801E-2</v>
+      </c>
+      <c r="I6" s="13">
+        <f>Pomiary!I6</f>
+        <v>28.9</v>
+      </c>
+      <c r="J6" s="14">
+        <f>Pomiary!J6</f>
+        <v>9.0998543944395077E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="12">
+        <f>Pomiary!B7</f>
+        <v>5</v>
+      </c>
+      <c r="C7" s="13">
+        <f>Pomiary!C7</f>
+        <v>2.5</v>
+      </c>
+      <c r="D7" s="13">
+        <f>Pomiary!D7</f>
+        <v>5.773502691896258E-3</v>
+      </c>
+      <c r="E7" s="13">
+        <f>Pomiary!E7</f>
+        <v>27.8</v>
+      </c>
+      <c r="F7" s="13">
+        <f>Pomiary!F7</f>
+        <v>6.5760195660698378E-2</v>
+      </c>
+      <c r="G7" s="13">
+        <f>Pomiary!G7</f>
+        <v>65.8</v>
+      </c>
+      <c r="H7" s="13">
+        <f>Pomiary!H7</f>
+        <v>6.5760195660698378E-2</v>
+      </c>
+      <c r="I7" s="13">
+        <f>Pomiary!I7</f>
+        <v>38</v>
+      </c>
+      <c r="J7" s="14">
+        <f>Pomiary!J7</f>
+        <v>9.2998960567668001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="15">
+        <f>Pomiary!B8</f>
+        <v>6</v>
+      </c>
+      <c r="C8" s="16">
+        <f>Pomiary!C8</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="16">
+        <f>Pomiary!D8</f>
+        <v>6.3508529610858833E-3</v>
+      </c>
+      <c r="E8" s="16">
+        <f>Pomiary!E8</f>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="F8" s="16">
+        <f>Pomiary!F8</f>
+        <v>6.8358271872051693E-2</v>
+      </c>
+      <c r="G8" s="16">
+        <f>Pomiary!G8</f>
+        <v>85.8</v>
+      </c>
+      <c r="H8" s="16">
+        <f>Pomiary!H8</f>
+        <v>6.8358271872051693E-2</v>
+      </c>
+      <c r="I8" s="16">
+        <f>Pomiary!I8</f>
+        <v>49</v>
+      </c>
+      <c r="J8" s="17">
+        <f>Pomiary!J8</f>
+        <v>9.6673195181842766E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="13" t="str">
+        <f t="shared" ref="B10:C16" si="0">B2</f>
+        <v>Lp.</v>
+      </c>
+      <c r="C10" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>I, A</v>
+      </c>
+      <c r="D10" s="13" t="str">
+        <f>$J$2</f>
+        <v>u(∆T), K</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="18">
+        <f>F11*1+G11</f>
+        <v>13.077142857142864</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C11" s="13" t="str">
+        <f>_xlfn.CONCAT(FIXED(C3,RIGHT(TEXT(D3,"0,00E+00"),2)+1,TRUE),"(",LEFT(D3*10^LEN(D3),2),")")</f>
+        <v>0,5000(34)</v>
+      </c>
+      <c r="D11" s="13" t="str">
+        <f>_xlfn.CONCAT(FIXED(I3,RIGHT(TEXT(J3,"0,00E+00"),2)+1,TRUE),"(",LEFT(J3*10^LEN(J3),2),")")</f>
+        <v>5,900(90)</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="array" ref="F11:G13">LINEST(I3:I8,C3:C8,TRUE,TRUE)</f>
+        <v>17.097142857142853</v>
+      </c>
+      <c r="G11" s="13">
+        <v>-4.0199999999999889</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C12" s="13" t="str">
+        <f t="shared" ref="C12:C16" si="1">_xlfn.CONCAT(FIXED(C4,RIGHT(TEXT(D4,"0,00E+00"),2)+1,TRUE),"(",LEFT(D4*10^LEN(D4),2),")")</f>
+        <v>1,0000(40)</v>
+      </c>
+      <c r="D12" s="13" t="str">
+        <f t="shared" ref="D12:D16" si="2">_xlfn.CONCAT(FIXED(I4,RIGHT(TEXT(J4,"0,00E+00"),2)+1,TRUE),"(",LEFT(J4*10^LEN(J4),2),")")</f>
+        <v>12,800(89)</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.66649249425478141</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1.2978076752372687</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C13" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1,5000(46)</v>
+      </c>
+      <c r="D13" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>20,800(89)</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.99395812792567129</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1.394069069819919</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C14" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>2,0000(51)</v>
+      </c>
+      <c r="D14" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>28,900(90)</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C15" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>2,5000(57)</v>
+      </c>
+      <c r="D15" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>38,000(92)</v>
+      </c>
+      <c r="F15" s="13" t="str">
+        <f>_xlfn.CONCAT(FIXED(F11,RIGHT(TEXT(F12,"0,00E+00"),2)+1,TRUE),"(",LEFT(F12*10^LEN(F12),2),")")</f>
+        <v>17,10(66)</v>
+      </c>
+      <c r="G15" s="13" t="str">
+        <f>_xlfn.CONCAT(FIXED(G11,RIGHT(TEXT(G12,"0,00E+00"),2)+1,TRUE),"(",LEFT(G12*10^LEN(G12),2),")")</f>
+        <v>-4,0(12)</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C16" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>3,0000(63)</v>
+      </c>
+      <c r="D16" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>49,000(96)</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="1">
+        <f>(0.002*C3+5*0.001)/SQRT(3)</f>
+        <v>3.4641016151377548E-3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>22.1</v>
+      </c>
+      <c r="F3" s="1">
+        <f>(0.0005*E3+0.1)/SQRT(3)</f>
+        <v>6.4114747393507948E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1">
+        <f>(0.0005*E3+0.1)/SQRT(3)</f>
+        <v>6.4114747393507948E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <f>G3-E3</f>
+        <v>5.8999999999999986</v>
+      </c>
+      <c r="J3" s="5">
+        <f>SQRT(H3^2+F3^2)</f>
+        <v>9.067194531202398E-2</v>
+      </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D8" si="0">(0.002*C4+5*0.001)/SQRT(3)</f>
+        <v>4.041451884327381E-3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20.3</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F8" si="1">(0.0005*E4+0.1)/SQRT(3)</f>
+        <v>6.3595132151237285E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>33.1</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H8" si="2">(0.0005*E4+0.1)/SQRT(3)</f>
+        <v>6.3595132151237285E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I8" si="3">G4-E4</f>
+        <v>12.8</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" ref="J4:J8" si="4">SQRT(H4^2+F4^2)</f>
+        <v>8.9937098389189035E-2</v>
+      </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="6">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6188021535170064E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>20.2</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>6.35662646377778E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="2"/>
+        <v>6.35662646377778E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="3"/>
+        <v>20.8</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="4"/>
+        <v>8.9896273560142639E-2</v>
+      </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="6">
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>-1.5</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>5.1961524227066326E-3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>22.9</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>6.4345687501183801E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>51.8</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>6.4345687501183801E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="3"/>
+        <v>28.9</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="4"/>
+        <v>9.0998543944395077E-2</v>
+      </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="6">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>-2</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>5.773502691896258E-3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>27.8</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>6.5760195660698378E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>65.8</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>6.5760195660698378E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="4"/>
+        <v>9.2998960567668001E-2</v>
+      </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="7">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
-        <v>-2.5</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>-3</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="C8" s="8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>6.3508529610858833E-3</v>
+      </c>
+      <c r="E8" s="8">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>6.8358271872051693E-2</v>
+      </c>
+      <c r="G8" s="8">
+        <v>85.8</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>6.8358271872051693E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="4"/>
+        <v>9.6673195181842766E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
